--- a/MAXQDA24 project - Codesystem.xlsx
+++ b/MAXQDA24 project - Codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="723" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="730" uniqueCount="172">
   <si>
     <t>Liste der Codes</t>
   </si>
@@ -57,10 +57,10 @@
     <t>Moving with SOTA</t>
   </si>
   <si>
-    <t>Understanding Use Cases and AI Solutions</t>
-  </si>
-  <si>
-    <t>Communication and Teambuilding</t>
+    <t>Understanding Use Cases &amp; Solutions</t>
+  </si>
+  <si>
+    <t>Communication &amp; Teambuilding</t>
   </si>
   <si>
     <t>Using AI VS Developing AI</t>
@@ -75,7 +75,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Marketing, Network &amp; Management</t>
+    <t>Marketing &amp; Networking</t>
   </si>
   <si>
     <t>Operation &amp; Infrastructure</t>
@@ -99,10 +99,10 @@
     <t>Data Exploration &amp; Analysis</t>
   </si>
   <si>
-    <t>AI Applications &amp; Use Cases</t>
-  </si>
-  <si>
-    <t>Manufactoring &amp; Industry</t>
+    <t>AI Use Cases</t>
+  </si>
+  <si>
+    <t>Manufacturing &amp; Industry</t>
   </si>
   <si>
     <t>Predictive Maintenance</t>
@@ -141,27 +141,24 @@
     <t>Traditional AI (ML &amp; Training Models)</t>
   </si>
   <si>
+    <t>AI-as-a-Service (Pretrained &amp; GenAI)</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Unsupervised &amp; Clustering</t>
+  </si>
+  <si>
     <t>Automated Data Labeling</t>
   </si>
   <si>
-    <t>AI-as-a-Service &amp; Deep Learning</t>
-  </si>
-  <si>
-    <t>AI-as-a-Service (Pretrained &amp; GenAI)</t>
-  </si>
-  <si>
-    <t>Natural Language Processing</t>
-  </si>
-  <si>
-    <t>Computer Vision</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
-    <t>Unsupervised &amp; Clustering</t>
-  </si>
-  <si>
     <t>ML Tools &amp; Brands</t>
   </si>
   <si>
@@ -201,12 +198,15 @@
     <t>Usability &amp; Performance</t>
   </si>
   <si>
+    <t>Energy, Resources &amp; Sustainability</t>
+  </si>
+  <si>
+    <t>Predictive Quality</t>
+  </si>
+  <si>
     <t>No Hallucination</t>
   </si>
   <si>
-    <t>Predictive Quality</t>
-  </si>
-  <si>
     <t>Experienced Quality &amp; Human Feedback</t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Consistency &amp; Robustness</t>
   </si>
   <si>
-    <t>Availablity of Data and Labels</t>
+    <t>Availablity of Data &amp; Labels</t>
   </si>
   <si>
     <t>Data Connectivity</t>
@@ -225,16 +225,13 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Sustainabaility &amp; Resources</t>
-  </si>
-  <si>
     <t>Low Cost</t>
   </si>
   <si>
     <t>Regulatories and Laws</t>
   </si>
   <si>
-    <t>Customizability and Individualization</t>
+    <t>Customizability</t>
   </si>
   <si>
     <t>Understanding &amp; Transparency</t>
@@ -267,7 +264,7 @@
     <t>Validation &amp; Certification</t>
   </si>
   <si>
-    <t>Advertisement &amp; Public Relations</t>
+    <t>Advertisement &amp; PR</t>
   </si>
   <si>
     <t>Transparency</t>
@@ -297,7 +294,7 @@
     <t>Limitations</t>
   </si>
   <si>
-    <t>Use Case Must Be Known</t>
+    <t>Use Case Understanding</t>
   </si>
   <si>
     <t>Finding Large Result Databases</t>
@@ -351,39 +348,33 @@
     <t>Explain Color Scoring</t>
   </si>
   <si>
-    <t>Add Interactivity &amp; Customizability</t>
-  </si>
-  <si>
-    <t>Add Info on Cost &amp; Money</t>
-  </si>
-  <si>
-    <t>Add Information on Privacy</t>
-  </si>
-  <si>
-    <t>Stronger Focus on Up-to-dateness</t>
-  </si>
-  <si>
-    <t>Add Info on Data and Model Relations</t>
+    <t>Interactivity &amp; Customizability</t>
+  </si>
+  <si>
+    <t>Info on Cost &amp; Money</t>
+  </si>
+  <si>
+    <t>Information on Privacy</t>
+  </si>
+  <si>
+    <t>More Info on Up-to-dateness</t>
+  </si>
+  <si>
+    <t>Info on Data and Model Relations</t>
   </si>
   <si>
     <t>Improving the Labeling Process</t>
   </si>
   <si>
-    <t>Consider More Benchmark Data</t>
-  </si>
-  <si>
-    <t>Importance of Properties</t>
-  </si>
-  <si>
-    <t>Termporal Performance</t>
+    <t>More Benchmark Data</t>
+  </si>
+  <si>
+    <t>Property Importance</t>
   </si>
   <si>
     <t>Up-to-dateness &amp; Usability</t>
   </si>
   <si>
-    <t>Energy, Resources &amp; Sustainability</t>
-  </si>
-  <si>
     <t>Associations</t>
   </si>
   <si>
@@ -408,46 +399,55 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Actively Used: Google</t>
-  </si>
-  <si>
-    <t>Actively Used: Asking Experts</t>
-  </si>
-  <si>
-    <t>Actively Used: Model Cards</t>
-  </si>
-  <si>
-    <t>Acitvely Used: Code Repos</t>
-  </si>
-  <si>
-    <t>Actively used: Blogs and Journalists</t>
+    <t>Used: ChatGPT &amp; LLMs</t>
+  </si>
+  <si>
+    <t>Used: Kaggle</t>
+  </si>
+  <si>
+    <t>Used: Google</t>
+  </si>
+  <si>
+    <t>Used: Asking Experts</t>
+  </si>
+  <si>
+    <t>Used: Model Cards</t>
+  </si>
+  <si>
+    <t>Used: Code Repos</t>
+  </si>
+  <si>
+    <t>Used: Blogs and Journalists</t>
   </si>
   <si>
     <t>Actively Used: Social Media and Youtube</t>
   </si>
   <si>
-    <t>Actively used: Paper</t>
-  </si>
-  <si>
-    <t>Actively Used: Library Documentation</t>
-  </si>
-  <si>
-    <t>Actively Used: Other</t>
-  </si>
-  <si>
-    <t>Comparisons with Competitors</t>
+    <t>Used: Paper</t>
+  </si>
+  <si>
+    <t>Used: Library Documentation</t>
+  </si>
+  <si>
+    <t>Used: Benchmark Leaderboards</t>
+  </si>
+  <si>
+    <t>Used: Papers With Code</t>
+  </si>
+  <si>
+    <t>General Comparison</t>
   </si>
   <si>
     <t>Comparison Difficult</t>
   </si>
   <si>
-    <t>Competitors Less Reliable or Relevant (Negative)</t>
-  </si>
-  <si>
-    <t>Competitors Rather Complex (Negative)</t>
-  </si>
-  <si>
-    <t>Competitors More In-Depth (Positive)</t>
+    <t>Compet Less Reliable or Relevant (Negative)</t>
+  </si>
+  <si>
+    <t>Compet Rather Complex (Negative)</t>
+  </si>
+  <si>
+    <t>Compet More In-Depth (Positive)</t>
   </si>
   <si>
     <t>Q4 - What About Trust?</t>
@@ -657,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
@@ -695,7 +695,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1246,7 +1246,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1434,7 +1434,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -1453,7 +1453,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1467,14 +1467,12 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1488,14 +1486,12 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1509,14 +1505,12 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1546,15 +1540,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1565,13 +1557,15 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1590,7 +1584,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1609,7 +1603,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1628,7 +1622,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1647,7 +1641,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1666,7 +1660,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1685,7 +1679,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1704,7 +1698,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1715,15 +1709,13 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1734,13 +1726,15 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1754,12 +1748,14 @@
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1773,14 +1769,12 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1794,12 +1788,14 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1820,7 +1816,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1837,11 +1833,13 @@
         <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="2"/>
       <c r="G62" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1885,7 +1883,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1906,7 +1904,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1984,7 +1982,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2003,7 +2001,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2022,7 +2020,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -2041,7 +2039,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2060,7 +2058,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -2068,18 +2066,14 @@
         <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2087,9 +2081,11 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2105,9 +2101,11 @@
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="3">
@@ -2125,12 +2123,14 @@
         <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="3">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2270,14 +2270,12 @@
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2291,12 +2289,14 @@
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -2355,11 +2355,13 @@
         <v>4</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="2"/>
       <c r="G88" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -2382,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="G89" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2405,7 +2407,7 @@
         <v>91</v>
       </c>
       <c r="G90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2416,19 +2418,13 @@
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2439,13 +2435,15 @@
         <v>4</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2464,7 +2462,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2483,7 +2481,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2502,7 +2500,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -2521,7 +2519,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2540,7 +2538,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -2559,7 +2557,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2573,9 +2571,11 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="3">
         <v>10</v>
@@ -2595,11 +2595,13 @@
         <v>4</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="2"/>
       <c r="G100" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2622,7 +2624,7 @@
         <v>102</v>
       </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -2645,7 +2647,7 @@
         <v>103</v>
       </c>
       <c r="G102" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -2662,13 +2664,11 @@
         <v>4</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2724,14 +2724,12 @@
         <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -2745,12 +2743,14 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -2767,11 +2767,13 @@
         <v>4</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F108" s="2"/>
       <c r="G108" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2794,7 +2796,7 @@
         <v>110</v>
       </c>
       <c r="G109" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -2811,13 +2813,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2954,17 +2954,13 @@
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2975,13 +2971,15 @@
         <v>4</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -2995,12 +2993,12 @@
         <v>4</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3014,12 +3012,12 @@
         <v>4</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -3033,12 +3031,12 @@
         <v>4</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -3052,12 +3050,12 @@
         <v>4</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
@@ -3068,15 +3066,13 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3087,13 +3083,15 @@
         <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -3107,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -3126,12 +3124,12 @@
         <v>4</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3142,15 +3140,13 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -3158,16 +3154,14 @@
         <v>4</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3175,14 +3169,16 @@
         <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -3193,13 +3189,15 @@
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -3213,12 +3211,12 @@
         <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3232,12 +3230,12 @@
         <v>4</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3251,12 +3249,12 @@
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -3270,12 +3268,12 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
@@ -3289,12 +3287,12 @@
         <v>4</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -3308,12 +3306,12 @@
         <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -3327,14 +3325,12 @@
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -3348,12 +3344,14 @@
         <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E138" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -3367,12 +3365,12 @@
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -3386,12 +3384,12 @@
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -3402,13 +3400,15 @@
         <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3422,12 +3422,12 @@
         <v>4</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3438,15 +3438,13 @@
         <v>4</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3460,12 +3458,12 @@
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3479,12 +3477,12 @@
         <v>4</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -3492,14 +3490,18 @@
         <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -3510,13 +3512,15 @@
         <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -3524,18 +3528,14 @@
         <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -3546,17 +3546,13 @@
         <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3570,14 +3566,12 @@
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3594,11 +3588,11 @@
         <v>4</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -3615,11 +3609,11 @@
         <v>4</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -3636,11 +3630,11 @@
         <v>4</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3657,11 +3651,11 @@
         <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3678,11 +3672,11 @@
         <v>4</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156">
@@ -3696,12 +3690,14 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E156" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="F156" s="2"/>
       <c r="G156" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -3718,11 +3714,11 @@
         <v>4</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3736,12 +3732,12 @@
         <v>4</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -3752,13 +3748,17 @@
         <v>4</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="F159" s="2"/>
       <c r="G159" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -3772,12 +3772,12 @@
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3788,15 +3788,13 @@
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3810,12 +3808,12 @@
         <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -3826,13 +3824,15 @@
         <v>4</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
@@ -3846,12 +3846,12 @@
         <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -3862,17 +3862,13 @@
         <v>4</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -3886,12 +3882,12 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
@@ -3905,12 +3901,14 @@
         <v>4</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E167" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="F167" s="2"/>
       <c r="G167" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -3924,12 +3922,12 @@
         <v>4</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -3943,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -3962,12 +3960,12 @@
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3981,12 +3979,12 @@
         <v>4</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4000,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -4008,8 +4006,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="174">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -4052,12 +4088,12 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:F51"/>
@@ -4065,13 +4101,13 @@
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="F62:F62"/>
     <mergeCell ref="F63:F63"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="E65:F65"/>
@@ -4083,105 +4119,107 @@
     <mergeCell ref="D71:F71"/>
     <mergeCell ref="D72:F72"/>
     <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="E85:F85"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="F88:F88"/>
     <mergeCell ref="F89:F89"/>
     <mergeCell ref="F90:F90"/>
-    <mergeCell ref="F91:F91"/>
-    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="D92:F92"/>
     <mergeCell ref="D93:F93"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="D97:F97"/>
     <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="F100:F100"/>
     <mergeCell ref="F101:F101"/>
     <mergeCell ref="F102:F102"/>
-    <mergeCell ref="F103:F103"/>
+    <mergeCell ref="E103:F103"/>
     <mergeCell ref="E104:F104"/>
     <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="F108:F108"/>
     <mergeCell ref="F109:F109"/>
-    <mergeCell ref="F110:F110"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="E111:F111"/>
     <mergeCell ref="E112:F112"/>
     <mergeCell ref="E113:F113"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="E115:F115"/>
     <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="D118:F118"/>
     <mergeCell ref="D119:F119"/>
     <mergeCell ref="D120:F120"/>
     <mergeCell ref="D121:F121"/>
     <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="D124:F124"/>
     <mergeCell ref="D125:F125"/>
     <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="D130:F130"/>
     <mergeCell ref="D131:F131"/>
     <mergeCell ref="D132:F132"/>
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="D135:F135"/>
     <mergeCell ref="D136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="E138:F138"/>
     <mergeCell ref="D139:F139"/>
     <mergeCell ref="D140:F140"/>
-    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="D141:F141"/>
     <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="C143:F143"/>
     <mergeCell ref="D144:F144"/>
     <mergeCell ref="D145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="D150:F150"/>
     <mergeCell ref="E151:F151"/>
     <mergeCell ref="E152:F152"/>
     <mergeCell ref="E153:F153"/>
     <mergeCell ref="E154:F154"/>
     <mergeCell ref="E155:F155"/>
-    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="E156:F156"/>
     <mergeCell ref="E157:F157"/>
     <mergeCell ref="D158:F158"/>
-    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="E159:F159"/>
     <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="C161:F161"/>
     <mergeCell ref="D162:F162"/>
-    <mergeCell ref="C163:F163"/>
+    <mergeCell ref="D163:F163"/>
     <mergeCell ref="D164:F164"/>
-    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="C165:F165"/>
     <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="E167:F167"/>
     <mergeCell ref="D168:F168"/>
     <mergeCell ref="D169:F169"/>
     <mergeCell ref="D170:F170"/>
     <mergeCell ref="D171:F171"/>
     <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/MAXQDA24 project - Codesystem.xlsx
+++ b/MAXQDA24 project - Codesystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\labeling-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D3A57-BDEC-4EA8-8C7A-1D9BBF7480A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5927EE-EA65-4B08-9756-A4D1F90C4D7F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="173">
   <si>
     <t>Liste der Codes</t>
   </si>
@@ -40,39 +40,36 @@
     <t>General Codes</t>
   </si>
   <si>
-    <t>ANON</t>
+    <t>Data &amp; ML Literacy</t>
+  </si>
+  <si>
+    <t>Insecurity</t>
+  </si>
+  <si>
+    <t>Inconsistency</t>
+  </si>
+  <si>
+    <t>General Business Problems</t>
+  </si>
+  <si>
+    <t>Moving with SOTA</t>
+  </si>
+  <si>
+    <t>Understanding Use Cases &amp; Solutions</t>
+  </si>
+  <si>
+    <t>Communication &amp; Teambuilding</t>
+  </si>
+  <si>
+    <t>Using AI VS Developing AI</t>
+  </si>
+  <si>
+    <t>Business Growth Thanks to AI</t>
   </si>
   <si>
     <t>Money Quotes</t>
   </si>
   <si>
-    <t>Data &amp; ML Literacy</t>
-  </si>
-  <si>
-    <t>Insecurity</t>
-  </si>
-  <si>
-    <t>Inconsistency</t>
-  </si>
-  <si>
-    <t>General Business Problems</t>
-  </si>
-  <si>
-    <t>Moving with SOTA</t>
-  </si>
-  <si>
-    <t>Understanding Use Cases &amp; Solutions</t>
-  </si>
-  <si>
-    <t>Communication &amp; Teambuilding</t>
-  </si>
-  <si>
-    <t>Using AI VS Developing AI</t>
-  </si>
-  <si>
-    <t>Business Growth Thanks to AI</t>
-  </si>
-  <si>
     <t>Types of Daily Work</t>
   </si>
   <si>
@@ -508,9 +505,15 @@
     <t>Dimensions of Trust</t>
   </si>
   <si>
+    <t>General AI Skepticism</t>
+  </si>
+  <si>
     <t>Ambiguity of AI Future</t>
   </si>
   <si>
+    <t>General AI Scepticism</t>
+  </si>
+  <si>
     <t>Trust in Labels</t>
   </si>
   <si>
@@ -520,6 +523,12 @@
     <t>Trust and Privacy</t>
   </si>
   <si>
+    <t>Regulation Skepticism</t>
+  </si>
+  <si>
+    <t>Regulation Scepticism</t>
+  </si>
+  <si>
     <t>Distrust in Authorities</t>
   </si>
   <si>
@@ -530,19 +539,13 @@
   </si>
   <si>
     <t>Trust in Model Information</t>
-  </si>
-  <si>
-    <t>Regulation Skepticism</t>
-  </si>
-  <si>
-    <t>General AI Skepticism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -561,6 +564,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -625,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -640,6 +649,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -956,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -993,8 +1005,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="2">
-        <v>1284</v>
+      <c r="G2" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1045,7 +1057,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1064,7 +1076,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1083,7 +1095,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1102,7 +1114,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1115,13 +1127,15 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1134,13 +1148,15 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1161,7 +1177,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1174,15 +1190,13 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1195,15 +1209,13 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1222,7 +1234,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1232,16 +1244,14 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1251,14 +1261,16 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1277,7 +1289,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1296,7 +1308,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1315,7 +1327,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1334,7 +1346,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1353,7 +1365,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1372,7 +1384,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1391,7 +1403,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1410,7 +1422,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1420,16 +1432,14 @@
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1439,14 +1449,16 @@
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1459,13 +1471,15 @@
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1486,7 +1500,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1499,15 +1513,13 @@
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1526,7 +1538,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1545,7 +1557,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1564,7 +1576,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1602,7 +1614,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1621,7 +1633,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1640,7 +1652,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1650,12 +1662,10 @@
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="3">
@@ -1669,14 +1679,16 @@
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1695,7 +1707,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="3">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1714,7 +1726,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1733,7 +1745,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1752,7 +1764,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1771,7 +1783,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1800,12 +1812,10 @@
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="3">
@@ -1819,14 +1829,16 @@
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,7 +1857,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1864,7 +1876,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1883,7 +1895,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1902,7 +1914,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1921,7 +1933,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1940,7 +1952,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1959,7 +1971,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1969,16 +1981,14 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1988,14 +1998,16 @@
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2008,13 +2020,15 @@
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2027,15 +2041,13 @@
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2048,13 +2060,15 @@
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2075,7 +2089,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2091,12 +2105,14 @@
       <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="5"/>
       <c r="G60" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2119,7 +2135,7 @@
         <v>62</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2135,14 +2151,12 @@
       <c r="D62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F62" s="5"/>
       <c r="G62" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2163,7 +2177,7 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2176,15 +2190,13 @@
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2197,13 +2209,15 @@
       <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2216,15 +2230,13 @@
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2243,7 +2255,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2262,7 +2274,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2281,7 +2293,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2300,7 +2312,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2319,36 +2331,34 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2363,10 +2373,12 @@
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="3">
@@ -2383,13 +2395,15 @@
       <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2410,7 +2424,7 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="3">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2431,7 +2445,7 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2473,7 +2487,7 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2494,7 +2508,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2515,7 +2529,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2528,15 +2542,13 @@
       <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2549,13 +2561,15 @@
       <c r="C83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2576,7 +2590,7 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2597,7 +2611,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2613,12 +2627,14 @@
       <c r="D86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="5"/>
       <c r="G86" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2641,7 +2657,7 @@
         <v>88</v>
       </c>
       <c r="G87" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2664,7 +2680,7 @@
         <v>89</v>
       </c>
       <c r="G88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2674,20 +2690,14 @@
       <c r="B89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2697,14 +2707,16 @@
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2723,7 +2735,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2742,7 +2754,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2761,7 +2773,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2780,7 +2792,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2799,7 +2811,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2818,7 +2830,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2831,10 +2843,12 @@
       <c r="C97" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="3">
         <v>10</v>
@@ -2853,12 +2867,14 @@
       <c r="D98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F98" s="5"/>
       <c r="G98" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2881,7 +2897,7 @@
         <v>100</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2904,7 +2920,7 @@
         <v>101</v>
       </c>
       <c r="G100" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2920,14 +2936,12 @@
       <c r="D101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2948,7 +2962,7 @@
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2982,15 +2996,13 @@
       <c r="C104" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3003,13 +3015,15 @@
       <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3025,12 +3039,14 @@
       <c r="D106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F106" s="5"/>
       <c r="G106" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3053,7 +3069,7 @@
         <v>108</v>
       </c>
       <c r="G107" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3069,14 +3085,12 @@
       <c r="D108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="F108" s="5"/>
       <c r="G108" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3097,7 +3111,7 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3118,7 +3132,7 @@
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3139,7 +3153,7 @@
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3160,7 +3174,7 @@
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3181,7 +3195,7 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3202,7 +3216,7 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3212,18 +3226,14 @@
       <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3233,14 +3243,16 @@
       <c r="B116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="5"/>
+      <c r="C116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3254,12 +3266,12 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3278,7 +3290,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3292,12 +3304,12 @@
         <v>4</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3311,12 +3323,12 @@
         <v>4</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3326,16 +3338,14 @@
       <c r="B121" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C121" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3345,14 +3355,16 @@
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3390,7 +3402,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3400,48 +3412,46 @@
       <c r="B125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3451,14 +3461,16 @@
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3477,7 +3489,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3515,7 +3527,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3534,7 +3546,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3553,7 +3565,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3572,7 +3584,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3591,7 +3603,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3604,13 +3616,15 @@
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3623,15 +3637,13 @@
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3650,7 +3662,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3669,7 +3681,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3688,7 +3700,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3698,16 +3710,14 @@
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3717,14 +3727,16 @@
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3743,7 +3755,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3762,7 +3774,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3781,41 +3793,39 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="B146" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3825,14 +3835,16 @@
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3851,7 +3863,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3870,7 +3882,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3880,16 +3892,14 @@
       <c r="B151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3899,10 +3909,12 @@
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="3">
@@ -3919,13 +3931,15 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3946,7 +3960,7 @@
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3967,7 +3981,7 @@
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3988,7 +4002,7 @@
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4009,7 +4023,7 @@
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4022,15 +4036,13 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4043,13 +4055,15 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,15 +4076,13 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4089,7 +4101,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,7 +4120,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4118,16 +4130,14 @@
       <c r="B163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>160</v>
       </c>
+      <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4137,14 +4147,16 @@
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4157,13 +4169,15 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165" s="5"/>
+      <c r="D165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F165" s="5"/>
       <c r="G165" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4176,15 +4190,13 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="D166" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4197,13 +4209,15 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E167" s="5"/>
+      <c r="D167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F167" s="5"/>
       <c r="G167" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4222,7 +4236,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4255,12 +4269,12 @@
         <v>4</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4274,12 +4288,12 @@
         <v>4</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4293,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -4312,12 +4326,12 @@
         <v>4</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4331,164 +4345,206 @@
         <v>4</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="174">
+  <mergeCells count="176">
+    <mergeCell ref="D170:F170"/>
     <mergeCell ref="D171:F171"/>
     <mergeCell ref="D172:F172"/>
     <mergeCell ref="D173:F173"/>
     <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D161:F161"/>
     <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="C164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="C163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="E167:F167"/>
     <mergeCell ref="D168:F168"/>
     <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="E153:F153"/>
     <mergeCell ref="E154:F154"/>
     <mergeCell ref="E155:F155"/>
     <mergeCell ref="E156:F156"/>
     <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D143:F143"/>
     <mergeCell ref="D144:F144"/>
     <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="D148:F148"/>
     <mergeCell ref="D149:F149"/>
     <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="D134:F134"/>
     <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="D137:F137"/>
     <mergeCell ref="D138:F138"/>
     <mergeCell ref="D139:F139"/>
     <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="D128:F128"/>
     <mergeCell ref="D129:F129"/>
     <mergeCell ref="D130:F130"/>
     <mergeCell ref="D131:F131"/>
     <mergeCell ref="D132:F132"/>
     <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D116:F116"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="D118:F118"/>
     <mergeCell ref="D119:F119"/>
     <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="D123:F123"/>
     <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="F108"/>
+    <mergeCell ref="F107"/>
+    <mergeCell ref="E108:F108"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="E111:F111"/>
     <mergeCell ref="E112:F112"/>
     <mergeCell ref="E113:F113"/>
     <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="F98"/>
     <mergeCell ref="F99"/>
     <mergeCell ref="F100"/>
-    <mergeCell ref="F101"/>
+    <mergeCell ref="E101:F101"/>
     <mergeCell ref="E102:F102"/>
     <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="F107"/>
-    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="F106"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="D90:F90"/>
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="D92:F92"/>
     <mergeCell ref="D93:F93"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E80:F80"/>
     <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="F86"/>
     <mergeCell ref="F87"/>
     <mergeCell ref="F88"/>
-    <mergeCell ref="F89"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="E75:F75"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="D66:F66"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="D69:F69"/>
     <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="F60"/>
     <mergeCell ref="F61"/>
-    <mergeCell ref="F62"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
@@ -4496,17 +4552,16 @@
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -4514,8 +4569,8 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>